--- a/natmiOut/OldD0/LR-pairs_lrc2p/Bmp7-Bmpr2.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Bmp7-Bmpr2.xlsx
@@ -528,52 +528,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.18243503739417</v>
+        <v>4.278141666666667</v>
       </c>
       <c r="H2">
-        <v>4.18243503739417</v>
+        <v>12.834425</v>
       </c>
       <c r="I2">
-        <v>0.969058883370374</v>
+        <v>0.9663225094340192</v>
       </c>
       <c r="J2">
-        <v>0.969058883370374</v>
+        <v>0.9663225094340191</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>28.338922461374</v>
+        <v>28.86405866666667</v>
       </c>
       <c r="N2">
-        <v>28.338922461374</v>
+        <v>86.59217600000001</v>
       </c>
       <c r="O2">
-        <v>0.299824129130442</v>
+        <v>0.3025739760541936</v>
       </c>
       <c r="P2">
-        <v>0.299824129130442</v>
+        <v>0.3025739760541936</v>
       </c>
       <c r="Q2">
-        <v>118.5257022244473</v>
+        <v>123.4845320509778</v>
       </c>
       <c r="R2">
-        <v>118.5257022244473</v>
+        <v>1111.3607884588</v>
       </c>
       <c r="S2">
-        <v>0.290547235782641</v>
+        <v>0.2923840438301172</v>
       </c>
       <c r="T2">
-        <v>0.290547235782641</v>
+        <v>0.2923840438301171</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.18243503739417</v>
+        <v>4.278141666666667</v>
       </c>
       <c r="H3">
-        <v>4.18243503739417</v>
+        <v>12.834425</v>
       </c>
       <c r="I3">
-        <v>0.969058883370374</v>
+        <v>0.9663225094340192</v>
       </c>
       <c r="J3">
-        <v>0.969058883370374</v>
+        <v>0.9663225094340191</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>42.668542475896</v>
+        <v>42.68037399999999</v>
       </c>
       <c r="N3">
-        <v>42.668542475896</v>
+        <v>128.041122</v>
       </c>
       <c r="O3">
-        <v>0.4514306641876645</v>
+        <v>0.4474066038250392</v>
       </c>
       <c r="P3">
-        <v>0.4514306641876645</v>
+        <v>0.4474066038250392</v>
       </c>
       <c r="Q3">
-        <v>178.4584070457288</v>
+        <v>182.5926863583166</v>
       </c>
       <c r="R3">
-        <v>178.4584070457288</v>
+        <v>1643.33417722485</v>
       </c>
       <c r="S3">
-        <v>0.4374628953568445</v>
+        <v>0.4323390721455639</v>
       </c>
       <c r="T3">
-        <v>0.4374628953568445</v>
+        <v>0.4323390721455638</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.18243503739417</v>
+        <v>4.278141666666667</v>
       </c>
       <c r="H4">
-        <v>4.18243503739417</v>
+        <v>12.834425</v>
       </c>
       <c r="I4">
-        <v>0.969058883370374</v>
+        <v>0.9663225094340192</v>
       </c>
       <c r="J4">
-        <v>0.969058883370374</v>
+        <v>0.9663225094340191</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.5110200944828</v>
+        <v>23.85061433333334</v>
       </c>
       <c r="N4">
-        <v>23.5110200944828</v>
+        <v>71.55184300000001</v>
       </c>
       <c r="O4">
-        <v>0.2487452066818934</v>
+        <v>0.2500194201207672</v>
       </c>
       <c r="P4">
-        <v>0.2487452066818934</v>
+        <v>0.2500194201207672</v>
       </c>
       <c r="Q4">
-        <v>98.33331420804325</v>
+        <v>102.0363069550306</v>
       </c>
       <c r="R4">
-        <v>98.33331420804325</v>
+        <v>918.326762595275</v>
       </c>
       <c r="S4">
-        <v>0.2410487522308885</v>
+        <v>0.2415993934583381</v>
       </c>
       <c r="T4">
-        <v>0.2410487522308885</v>
+        <v>0.2415993934583381</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.133541121709512</v>
+        <v>0.1490983333333333</v>
       </c>
       <c r="H5">
-        <v>0.133541121709512</v>
+        <v>0.447295</v>
       </c>
       <c r="I5">
-        <v>0.03094111662962593</v>
+        <v>0.03367749056598092</v>
       </c>
       <c r="J5">
-        <v>0.03094111662962593</v>
+        <v>0.03367749056598091</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>28.338922461374</v>
+        <v>28.86405866666667</v>
       </c>
       <c r="N5">
-        <v>28.338922461374</v>
+        <v>86.59217600000001</v>
       </c>
       <c r="O5">
-        <v>0.299824129130442</v>
+        <v>0.3025739760541936</v>
       </c>
       <c r="P5">
-        <v>0.299824129130442</v>
+        <v>0.3025739760541936</v>
       </c>
       <c r="Q5">
-        <v>3.784411493530769</v>
+        <v>4.303583040435556</v>
       </c>
       <c r="R5">
-        <v>3.784411493530769</v>
+        <v>38.73224736392</v>
       </c>
       <c r="S5">
-        <v>0.009276893347801031</v>
+        <v>0.01018993222407644</v>
       </c>
       <c r="T5">
-        <v>0.009276893347801031</v>
+        <v>0.01018993222407644</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.133541121709512</v>
+        <v>0.1490983333333333</v>
       </c>
       <c r="H6">
-        <v>0.133541121709512</v>
+        <v>0.447295</v>
       </c>
       <c r="I6">
-        <v>0.03094111662962593</v>
+        <v>0.03367749056598092</v>
       </c>
       <c r="J6">
-        <v>0.03094111662962593</v>
+        <v>0.03367749056598091</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>42.668542475896</v>
+        <v>42.68037399999999</v>
       </c>
       <c r="N6">
-        <v>42.668542475896</v>
+        <v>128.041122</v>
       </c>
       <c r="O6">
-        <v>0.4514306641876645</v>
+        <v>0.4474066038250392</v>
       </c>
       <c r="P6">
-        <v>0.4514306641876645</v>
+        <v>0.4474066038250392</v>
       </c>
       <c r="Q6">
-        <v>5.69800502394111</v>
+        <v>6.363572629443333</v>
       </c>
       <c r="R6">
-        <v>5.69800502394111</v>
+        <v>57.27215366498999</v>
       </c>
       <c r="S6">
-        <v>0.01396776883082003</v>
+        <v>0.01506753167947532</v>
       </c>
       <c r="T6">
-        <v>0.01396776883082003</v>
+        <v>0.01506753167947532</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.133541121709512</v>
+        <v>0.1490983333333333</v>
       </c>
       <c r="H7">
-        <v>0.133541121709512</v>
+        <v>0.447295</v>
       </c>
       <c r="I7">
-        <v>0.03094111662962593</v>
+        <v>0.03367749056598092</v>
       </c>
       <c r="J7">
-        <v>0.03094111662962593</v>
+        <v>0.03367749056598091</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>23.5110200944828</v>
+        <v>23.85061433333334</v>
       </c>
       <c r="N7">
-        <v>23.5110200944828</v>
+        <v>71.55184300000001</v>
       </c>
       <c r="O7">
-        <v>0.2487452066818934</v>
+        <v>0.2500194201207672</v>
       </c>
       <c r="P7">
-        <v>0.2487452066818934</v>
+        <v>0.2500194201207672</v>
       </c>
       <c r="Q7">
-        <v>3.13968799595211</v>
+        <v>3.556086846076111</v>
       </c>
       <c r="R7">
-        <v>3.13968799595211</v>
+        <v>32.004781614685</v>
       </c>
       <c r="S7">
-        <v>0.007696454451004871</v>
+        <v>0.008420026662429159</v>
       </c>
       <c r="T7">
-        <v>0.007696454451004871</v>
+        <v>0.008420026662429157</v>
       </c>
     </row>
   </sheetData>
